--- a/association_rule.xlsx
+++ b/association_rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>antecedents</t>
   </si>
@@ -43,10 +43,43 @@
     <t>conviction</t>
   </si>
   <si>
-    <t>frozenset({'Картофельные дольки с кожурой McCain 2,5 кг. 4 шт./кор (КОД 106339)'})</t>
-  </si>
-  <si>
-    <t>frozenset({'Картофель фри 9/9 мм McCain A- Grade 2,5 кг. 5 шт./кор (КОД 100139)'})</t>
+    <t>frozenset({'Comedy$Romance'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Thriller'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Drama$Romance', 'Comedy'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Comedy$Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Comedy$Drama', 'Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Drama$Romance'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Comedy$Romance', 'Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Thriller', 'Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Drama$Romance', 'Comedy', 'Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Comedy$Drama', 'Comedy', 'Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Drama$Romance', 'Comedy$Drama'})</t>
+  </si>
+  <si>
+    <t>frozenset({'Comedy', 'Drama'})</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -404,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,25 +483,25 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0.3011363636363636</v>
+        <v>0.55</v>
       </c>
       <c r="E2">
-        <v>0.5568181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>0.2130681818181818</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>0.7075471698113207</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="H2">
-        <v>1.270696958028494</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="I2">
-        <v>0.04538997933884298</v>
+        <v>0.1125</v>
       </c>
       <c r="J2">
-        <v>1.515395894428152</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,25 +515,537 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.5568181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
-        <v>0.3011363636363636</v>
+        <v>0.55</v>
       </c>
       <c r="F3">
-        <v>0.2130681818181818</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <v>0.3826530612244898</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1.270696958028495</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="I3">
-        <v>0.04538997933884298</v>
-      </c>
-      <c r="J3">
-        <v>1.132043576258452</v>
+        <v>0.1125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.45</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="I4">
+        <v>0.11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="H5">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="I5">
+        <v>0.11</v>
+      </c>
+      <c r="J5">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>0.3</v>
+      </c>
+      <c r="G6">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="H6">
+        <v>1.875</v>
+      </c>
+      <c r="I6">
+        <v>0.14</v>
+      </c>
+      <c r="J6">
+        <v>2.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.875</v>
+      </c>
+      <c r="I7">
+        <v>0.14</v>
+      </c>
+      <c r="J7">
+        <v>2.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>0.55</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="I9">
+        <v>0.09</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0.55</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="H10">
+        <v>1.818181818181818</v>
+      </c>
+      <c r="I10">
+        <v>0.09</v>
+      </c>
+      <c r="J10">
+        <v>1.257142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0.45</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="I12">
+        <v>0.11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.35</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="I14">
+        <v>0.09500000000000001</v>
+      </c>
+      <c r="J14">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2.5</v>
+      </c>
+      <c r="I15">
+        <v>0.12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>2.5</v>
+      </c>
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>0.35</v>
+      </c>
+      <c r="E17">
+        <v>0.3</v>
+      </c>
+      <c r="F17">
+        <v>0.2</v>
+      </c>
+      <c r="G17">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="H17">
+        <v>1.904761904761905</v>
+      </c>
+      <c r="I17">
+        <v>0.09500000000000001</v>
+      </c>
+      <c r="J17">
+        <v>1.633333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0.45</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
+        <v>0.2</v>
+      </c>
+      <c r="G19">
+        <v>0.4444444444444445</v>
+      </c>
+      <c r="H19">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="I19">
+        <v>0.11</v>
+      </c>
+      <c r="J19">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>
